--- a/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,73%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,89; 9,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,24; 14,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,62; 4,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 13,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,33; 406,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,04; 166,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,72; 54,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,1; 180,71</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 5,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 5,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 6,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 3,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,42; 105,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,36; 51,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,38; 76,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 29,68</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,99%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,04; 5,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 4,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 5,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 5,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,16; 120,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,83; 50,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 63,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 54,8</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,56</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>84,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 7,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 0,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 33,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,72; 102,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 99,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,25; 11,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,93; 307,72</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 3,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 4,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 6,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 4,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 64,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,79; 54,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 98,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 43,73</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,42%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 3,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 3,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 3,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 12,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,46; 62,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,95; 36,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 35,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,52; 109,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,94</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>82,24%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-24,58%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 9,97</t>
+          <t>-0,12; 5,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 14,68</t>
+          <t>-1,86; 5,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 4,87</t>
+          <t>-1,5; 5,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 13,56</t>
+          <t>-1,53; 4,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 406,58</t>
+          <t>-1,9; 110,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 166,57</t>
+          <t>-14,0; 53,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 54,0</t>
+          <t>-11,94; 54,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 180,71</t>
+          <t>-9,39; 40,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,69%</t>
+          <t>55,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>51,09%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 5,13</t>
+          <t>1,04; 5,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 5,04</t>
+          <t>-1,13; 4,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 6,94</t>
+          <t>-0,58; 5,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,72</t>
+          <t>1,21; 9,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 105,88</t>
+          <t>12,16; 120,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 51,05</t>
+          <t>-10,83; 50,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 76,22</t>
+          <t>-5,09; 63,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 29,68</t>
+          <t>9,86; 184,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>18,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>55,41%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>40,03%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>-17,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>152,21%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,63</t>
+          <t>-0,63; 4,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,37</t>
+          <t>0,52; 7,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,29</t>
+          <t>-4,64; 0,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 5,11</t>
+          <t>-2,12; 49,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 120,45</t>
+          <t>-9,72; 102,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 50,88</t>
+          <t>3,08; 99,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 63,0</t>
+          <t>-42,25; 11,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 54,8</t>
+          <t>-16,39; 457,25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,56</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,03%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-17,45%</t>
+          <t>42,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,54%</t>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,51</t>
+          <t>-1,2; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,39</t>
+          <t>-1,5; 4,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,93</t>
+          <t>0,52; 6,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 33,87</t>
+          <t>-1,37; 4,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 102,65</t>
+          <t>-18,26; 64,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 99,98</t>
+          <t>-12,79; 54,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 11,8</t>
+          <t>7,33; 98,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 307,72</t>
+          <t>-9,57; 40,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>35,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>62,01%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,28</t>
+          <t>0,86; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,47</t>
+          <t>0,44; 3,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,07</t>
+          <t>0,1; 3,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,93</t>
+          <t>1,55; 21,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 64,92</t>
+          <t>13,46; 62,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 54,27</t>
+          <t>3,95; 36,93</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 98,41</t>
+          <t>0,76; 35,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 43,73</t>
+          <t>12,9; 199,87</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,15</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>35,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19,39%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>17,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>33,42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 3,3</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,44; 3,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 3,11</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 12,79</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>13,46; 62,23</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 36,93</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 35,1</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,52; 109,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A15-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 5,21</t>
+          <t>0,03; 5,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,3</t>
+          <t>-1,75; 5,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 5,56</t>
+          <t>-1,36; 5,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 4,88</t>
+          <t>-1,32; 5,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 110,63</t>
+          <t>-0,42; 107,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 53,33</t>
+          <t>-12,38; 51,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 54,44</t>
+          <t>-11,76; 53,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 40,14</t>
+          <t>-8,65; 43,78</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 5,63</t>
+          <t>0,8; 5,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 4,37</t>
+          <t>-1,26; 4,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,29</t>
+          <t>-0,23; 5,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 9,46</t>
+          <t>1,44; 9,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 120,45</t>
+          <t>9,95; 123,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 50,88</t>
+          <t>-10,83; 49,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 63,0</t>
+          <t>-1,89; 69,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,86; 184,68</t>
+          <t>12,33; 201,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 4,51</t>
+          <t>-0,64; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,39</t>
+          <t>0,08; 6,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,93</t>
+          <t>-4,67; 1,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 49,0</t>
+          <t>-2,04; 51,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 102,65</t>
+          <t>-11,84; 101,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 99,98</t>
+          <t>0,3; 91,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,25; 11,8</t>
+          <t>-41,31; 19,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-16,39; 457,25</t>
+          <t>-15,21; 467,14</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,28</t>
+          <t>-1,28; 2,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 4,47</t>
+          <t>-1,91; 4,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,07</t>
+          <t>0,74; 5,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,48</t>
+          <t>-1,37; 4,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 64,92</t>
+          <t>-20,16; 59,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 54,27</t>
+          <t>-15,62; 46,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 98,41</t>
+          <t>7,95; 95,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 40,21</t>
+          <t>-10,46; 41,78</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,3</t>
+          <t>0,92; 3,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,58</t>
+          <t>0,52; 3,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 3,11</t>
+          <t>0,16; 3,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 21,76</t>
+          <t>1,51; 23,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,46; 62,23</t>
+          <t>14,64; 63,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 36,93</t>
+          <t>4,49; 37,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 35,1</t>
+          <t>1,61; 35,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,9; 199,87</t>
+          <t>12,59; 222,99</t>
         </is>
       </c>
     </row>
